--- a/medicine/Enfance/Anne_Cortey/Anne_Cortey.xlsx
+++ b/medicine/Enfance/Anne_Cortey/Anne_Cortey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anne Cortey, née en mai 1966, est une écrivaine française, autrice d’albums et de romans pour la jeunesse.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,24 +553,97 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Les Histoires de Lili-Couettes
-Lili-Couettes cuisine, avec Claire Le Grand, Paris, Éditions Magnard Jeunesse, 2003, 19 p.  (ISBN 2-210-98252-9)
+          <t>Les Histoires de Lili-Couettes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Lili-Couettes cuisine, avec Claire Le Grand, Paris, Éditions Magnard Jeunesse, 2003, 19 p.  (ISBN 2-210-98252-9)
 Lili-Couettes jardine, avec Claire Le Grand, Paris, Éditions Magnard Jeunesse, 2003, 20 p.  (ISBN 2-210-98250-2)
 Lili-Couettes joue de la trompette, avec Claire Le Grand, Paris, Éditions Magnard Jeunesse, 2003, 20 p.  (ISBN 2-210-98251-0)
 Lili-Couettes dessine, avec Claire Le Grand, Paris, Éditions Magnard Jeunesse, 2003, 20 p.  (ISBN 2-210-98253-7)
 Lili-Couettes s’habille, avec Claire Le Grand, Paris, Éditions Magnard Jeunesse, 2004, 24 p.  (ISBN 2-210-98255-3)
-Pas d’école pour Lili-Couettes, avec Claire Le Grand, Paris, Éditions Magnard Jeunesse, 2004, 24 p.  (ISBN 2-210-98254-5)
-Les Peintres
-Claude Monet, avec Françoise de Guibert, Paris, Réunion des Musées Nationaux/Hatier, coll. « Tout un art », 2006, 29 p.  (ISBN 2-218-75263-8)
+Pas d’école pour Lili-Couettes, avec Claire Le Grand, Paris, Éditions Magnard Jeunesse, 2004, 24 p.  (ISBN 2-210-98254-5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Anne_Cortey</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne_Cortey</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Les Peintres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Claude Monet, avec Françoise de Guibert, Paris, Réunion des Musées Nationaux/Hatier, coll. « Tout un art », 2006, 29 p.  (ISBN 2-218-75263-8)
 Léonard de Vinci, avec Françoise de Guibert, Paris, Réunion des Musées Nationaux/Hatier, coll. « Tout un art », 2006, 29 p.  (ISBN 2-218-75262-X)
 Pablo Picasso, avec Françoise de Guibert, Paris, Réunion des Musées Nationaux/Hatier, coll. « Tout un art », 2007, 29 p.  (ISBN 978-2-218-75331-2)
 Henri Matisse, avec Françoise de Guibert, Paris, Réunion des Musées Nationaux/Hatier, coll. « Tout un art », 2007, 29 p.  (ISBN 978-2-218-75357-2)
 Alexander Calder, avec Françoise de Guibert, Paris, Réunion des Musées Nationaux/Hatier, coll. « Tout un art », 2008, 29 p.  (ISBN 978-2-218-75370-1)
 Auguste Rodin, avec Françoise de Guibert, Paris, Musée Rodin/Hatier, 2009, 29 p.  (ISBN 978-2-218-75488-3 et 978-2-35377-013-7)
 Comment parler de Vincent Van Gogh aux enfants, Paris, Éditions Le Baron perché, coll. « Comment parler... aux enfants ? », 2011, 79 p.  (ISBN 978-2-36080-030-8)
-Comment parler de Niki de Saint Phalle aux enfants, Paris, Éditions Le Baron perché, coll. « Comment parler... aux enfants ? », 2012, 79 p.  (ISBN 978-2-36080-046-9)
-Albums jeunesse et premières lectures
-M. et Mme les Saisons, ill. d'Antoine Guillopé, d'Anne Cresci, ill. de Vincent Bourgeau, Toulouse, France, Éditions Milan, coll. « Jeunesse », 2004, 34 p.  (ISBN 2-7459-1487-1)
+Comment parler de Niki de Saint Phalle aux enfants, Paris, Éditions Le Baron perché, coll. « Comment parler... aux enfants ? », 2012, 79 p.  (ISBN 978-2-36080-046-9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Anne_Cortey</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne_Cortey</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Albums jeunesse et premières lectures</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>M. et Mme les Saisons, ill. d'Antoine Guillopé, d'Anne Cresci, ill. de Vincent Bourgeau, Toulouse, France, Éditions Milan, coll. « Jeunesse », 2004, 34 p.  (ISBN 2-7459-1487-1)
 Je ne suis pas un ver de terre, ill. de Guillaume Reynard, Paris, Éditions Autrement, coll. « Autrement jeunesse », 2005, 26 p.  (ISBN 2-7467-0744-6)
 Le Cirque le Far west, ill. d’Édouard Manceau, Toulouse, France, Éditions Milan, coll. « Jeunesse - Mes coloriages inventifs», 2006  (ISBN 2-7459-2284-X)
 Petites histoires pour rire du loup, ill. de Catherine Meurisse, Paris, Éditions Albin Michel Jeunesse, 2007, 60 p.  (ISBN 978-2-226-17072-9)
@@ -566,11 +653,11 @@
 Les Ailes d’Anna, ill. d’Anaïs Massini, Paris, Éditions Autrement, coll. « Autrement jeunesse », 2009, 28 p.  (ISBN 978-2-7467-0953-9)
 Mange ta chambre, ill. d’Audrey Calleja, Paris, Éditions Autrement, coll. « Autrement jeunesse », 2010, 28 p.  (ISBN 978-2-7467-1376-5)
 Aventures, ill. de Janik Coat, Paris, Éditions Albin Michel Jeunesse, 2010, 82 p.  (ISBN 978-2-226-19204-2)
-Blanche[1], avec Françoise de Guibert, ill. de Nathalie Choux, Paris, Hélium Éditions, 2011, 45 p.  (ISBN 978-2-35851-062-2)
-Muette[2], ill. d’Alexandra Pichard, Paris, Éditions Autrement, coll. « Autrement jeunesse », 2011, 24 p.  (ISBN 978-2-7467-1496-0)
+Blanche, avec Françoise de Guibert, ill. de Nathalie Choux, Paris, Hélium Éditions, 2011, 45 p.  (ISBN 978-2-35851-062-2)
+Muette, ill. d’Alexandra Pichard, Paris, Éditions Autrement, coll. « Autrement jeunesse », 2011, 24 p.  (ISBN 978-2-7467-1496-0)
 Amos et les gouttes de pluie, ill. de Janik Coat, Paris, Éditions Autrement, coll. « Autrement jeunesse », 2011, 20 p.  (ISBN 978-2-7467-1465-6)
 Nuit d’hiver, ill. d’Anaïs Massini, Paris, Éditions Autrement, coll. « Autrement jeunesse », 2011, 28 p.  (ISBN 978-2-7467-3071-7)
-Sur l’île, avec Vincent Bourgeau, Paris, Éditions Le Baron perché, 2012, 38 p.  (ISBN 978-2-36080-043-8)[3]
+Sur l’île, avec Vincent Bourgeau, Paris, Éditions Le Baron perché, 2012, 38 p.  (ISBN 978-2-36080-043-8)
 Une feuille verte, avec Candice Hayat, Paris, Éditions Sarbacane, 2014, 32 p.  (ISBN 978-2-84865-716-5)
 Fanfare, avec Julia Wauters, Paris, Éditions Sarbacane, 2014, 34 p.  (ISBN 978-2-84865-701-1)
 L’Armoire, avec Anaïs Massini, Paris, Éditions Grasset jeunesse, 2015, 41 p.  (ISBN 978-2-246-85829-4)
@@ -578,7 +665,7 @@
 Petite, avec Audrey Calleja, À pas de loup, 2015
 Aujourd'hui, Amos, ill. de Janik Coat, Paris, Éditions Grasset jeunesse, 2016, 40 p.  (ISBN 978-2-246-78734-1)
  Le voyage d'Ignacio, avec Vincent Bourgeau, Grasset-jeunesse, 2016
- Avec des lettres[4], avec Carole Chaix, À pas de loups, 2016
+ Avec des lettres, avec Carole Chaix, À pas de loups, 2016
 Le souffle de l'été, avec Anaïs Massini, Grasset jeunesse, 2016
 Entre les gouttes, illustrations de Vincent Bourgeau, l'École des loisirs, 2017
 Chat pas moi ! , avec Fred Benaglia, Sarbacane, 2017
@@ -586,46 +673,82 @@
 Les petits mots d'Amos, avec Janik Coat, Grasset jeunesse, 2018
 Pêche à l'arc, illustrations Benoît Perroud, Mango jeunesse, 2018
 L'année ordinaire de l'extraordinaire Olga, avec Marion Piffaretti, Éditions Thierry Magnier, 2018
-L'envol de Miette[5], illustrations de Ghislaine Herbéra, Bruxelles, éd. À pas de loups, 2022
+L'envol de Miette, illustrations de Ghislaine Herbéra, Bruxelles, éd. À pas de loups, 2022
 Les ébouriffés, illustrations de Thomas Baas, Grasset jeunesse, 2023
 Chat, montre-toi !, illustrations de Anaïs Massini, Éditions Thierry Magnier, 2023
-Le monde est immense, illustrations de Marion Cocklico, Grasset jeunesse, 2024
-Romans jeunesse
-L’Armoire, ill. de Claire de Gastold, Paris, Éditions Grasset jeunesse, 2012, 59 p.  (ISBN 978-2-246-80125-2)
+Le monde est immense, illustrations de Marion Cocklico, Grasset jeunesse, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Anne_Cortey</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne_Cortey</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>L’Armoire, ill. de Claire de Gastold, Paris, Éditions Grasset jeunesse, 2012, 59 p.  (ISBN 978-2-246-80125-2)
 La vie en rouge, illustré par Vincent Bourgeau, l'École des loisirs, collection « Neuf », 2019
 Romans ado
-En émois[6] , l'École des loisirs, collection « Médium », 2019
+En émois , l'École des loisirs, collection « Médium », 2019
 Les désaccordés, illustrations de Cyril Pedrosa, l'École des loisirs, collection « Médium », 2023</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Anne_Cortey</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Anne_Cortey</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix Saint-Exupéry 2017[7] pour Le voyage d'Ignacio, avec Vincent Bourgeau</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Prix Saint-Exupéry 2017 pour Le voyage d'Ignacio, avec Vincent Bourgeau</t>
         </is>
       </c>
     </row>
